--- a/tools/data.xlsx
+++ b/tools/data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20404"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20417"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PlayGround\Python\ImageWorker\DC26\badge_generator\tools\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PlayGround\badge_generator\badge_generator\tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3BF5F27-CB71-453D-AE4E-1059A70C8E3F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0789063-4ACF-41C3-88ED-7A1C62F2F92F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3075" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,16 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t>101937</t>
-  </si>
-  <si>
-    <t>218689</t>
-  </si>
-  <si>
-    <t>Engineer</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>No.</t>
   </si>
@@ -47,9 +38,6 @@
   </si>
   <si>
     <t>Director</t>
-  </si>
-  <si>
-    <t>TRẦN THỊ B</t>
   </si>
 </sst>
 </file>
@@ -116,10 +104,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7C962041-207A-4F29-A01C-4C922CB429E3}" name="Table1" displayName="Table1" ref="A1:D3" totalsRowShown="0">
-  <autoFilter ref="A1:D3" xr:uid="{114FB2F8-257E-4B8A-9F8F-684AF50F831F}"/>
-  <sortState ref="A2:D102">
-    <sortCondition ref="A2:A102"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7C962041-207A-4F29-A01C-4C922CB429E3}" name="Table1" displayName="Table1" ref="A1:D2" totalsRowShown="0">
+  <autoFilter ref="A1:D2" xr:uid="{114FB2F8-257E-4B8A-9F8F-684AF50F831F}"/>
+  <sortState ref="A2:D101">
+    <sortCondition ref="A2:A101"/>
   </sortState>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{26A9FFC0-E7F7-4DF8-8C4B-7BD6D4FBE92E}" name="No."/>
@@ -452,10 +440,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -466,44 +454,30 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
         <v>3</v>
-      </c>
-      <c r="B1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>0</v>
+      <c r="B2">
+        <v>154176</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
